--- a/pre_dcb.xlsx
+++ b/pre_dcb.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1FAA2683-EF24-464F-8778-5B3CD2969A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA9D671-9C37-4D8E-A940-3B19989166BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pre_dcb" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +365,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,11 +619,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -974,11 +983,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -987,19 +996,19 @@
       <c r="A1">
         <v>22018</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="2">
         <v>5</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="2">
         <v>5</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="2">
         <v>6</v>
       </c>
       <c r="E1">
         <v>10</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="2">
         <v>6</v>
       </c>
       <c r="G1">
@@ -1028,6 +1037,53 @@
       </c>
       <c r="O1">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>22019</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>30</v>
+      </c>
+      <c r="N2">
+        <v>28</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/pre_dcb.xlsx
+++ b/pre_dcb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA9D671-9C37-4D8E-A940-3B19989166BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44BFA3F-4A68-41E5-9DEC-F35B1D7C1EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pre_dcb" sheetId="1" r:id="rId1"/>
@@ -984,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1086,6 +1086,53 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>22020</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>17</v>
+      </c>
+      <c r="K3">
+        <v>22</v>
+      </c>
+      <c r="L3">
+        <v>21</v>
+      </c>
+      <c r="M3">
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <v>26</v>
+      </c>
+      <c r="O3">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pre_dcb.xlsx
+++ b/pre_dcb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44BFA3F-4A68-41E5-9DEC-F35B1D7C1EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033F09AC-2571-42A6-B4A3-6D121B07C6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pre_dcb" sheetId="1" r:id="rId1"/>
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:O3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1096,10 +1096,10 @@
       <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>11</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>9</v>
       </c>
       <c r="F3">
@@ -1117,7 +1117,7 @@
       <c r="J3">
         <v>17</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>22</v>
       </c>
       <c r="L3">

--- a/pre_dcb.xlsx
+++ b/pre_dcb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033F09AC-2571-42A6-B4A3-6D121B07C6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C5A436-93A9-4129-9546-FA666AEAF330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pre_dcb" sheetId="1" r:id="rId1"/>
@@ -984,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1133,6 +1133,53 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>22021</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>25</v>
+      </c>
+      <c r="L4">
+        <v>23</v>
+      </c>
+      <c r="M4">
+        <v>28</v>
+      </c>
+      <c r="N4">
+        <v>27</v>
+      </c>
+      <c r="O4">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pre_dcb.xlsx
+++ b/pre_dcb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C5A436-93A9-4129-9546-FA666AEAF330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86AAA56-734E-4BDE-BB98-1F0FD8AA475A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -984,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:O4"/>
+      <selection activeCell="A5" sqref="A5:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1180,6 +1180,53 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>22022</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>24</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>26</v>
+      </c>
+      <c r="L5">
+        <v>26</v>
+      </c>
+      <c r="M5">
+        <v>27</v>
+      </c>
+      <c r="N5">
+        <v>29</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pre_dcb.xlsx
+++ b/pre_dcb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86AAA56-734E-4BDE-BB98-1F0FD8AA475A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CF65F7-8E29-46B2-89A4-A49DF9E33A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6744" yWindow="1512" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pre_dcb" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,12 +365,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +620,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -987,7 +981,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:O5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1005,7 +999,7 @@
       <c r="D1" s="2">
         <v>6</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="2">
         <v>10</v>
       </c>
       <c r="F1" s="2">
@@ -1193,7 +1187,7 @@
       <c r="D5">
         <v>12</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>7</v>
       </c>
       <c r="F5">

--- a/pre_dcb.xlsx
+++ b/pre_dcb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CF65F7-8E29-46B2-89A4-A49DF9E33A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709A5FA9-73B0-46C5-BD3E-4572F801B133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6744" yWindow="1512" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pre_dcb" sheetId="1" r:id="rId1"/>
@@ -978,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A6" sqref="A6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1221,6 +1221,53 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>22023</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>18</v>
+      </c>
+      <c r="J6">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>19</v>
+      </c>
+      <c r="L6">
+        <v>22</v>
+      </c>
+      <c r="M6">
+        <v>27</v>
+      </c>
+      <c r="N6">
+        <v>31</v>
+      </c>
+      <c r="O6">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pre_dcb.xlsx
+++ b/pre_dcb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709A5FA9-73B0-46C5-BD3E-4572F801B133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD3DD86-0391-44D2-BD7C-2BAE5970F810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -981,7 +981,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:O6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1240,7 @@
       <c r="F6">
         <v>8</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>12</v>
       </c>
       <c r="H6">
@@ -1252,7 +1252,7 @@
       <c r="J6">
         <v>16</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>19</v>
       </c>
       <c r="L6">

--- a/pre_dcb.xlsx
+++ b/pre_dcb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD3DD86-0391-44D2-BD7C-2BAE5970F810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E813BF3D-E21B-4B98-8A7B-5533369473BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -978,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1268,6 +1268,53 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>22024</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>11</v>
+      </c>
+      <c r="K7">
+        <v>22</v>
+      </c>
+      <c r="L7">
+        <v>23</v>
+      </c>
+      <c r="M7">
+        <v>27</v>
+      </c>
+      <c r="N7">
+        <v>28</v>
+      </c>
+      <c r="O7">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pre_dcb.xlsx
+++ b/pre_dcb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E813BF3D-E21B-4B98-8A7B-5533369473BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E147B26-5048-455D-B54F-79C495BCE6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -978,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K8" sqref="K8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1315,6 +1315,53 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>22025</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1">
+        <v>24</v>
+      </c>
+      <c r="L8" s="1">
+        <v>25</v>
+      </c>
+      <c r="M8">
+        <v>30</v>
+      </c>
+      <c r="N8">
+        <v>29</v>
+      </c>
+      <c r="O8">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pre_dcb.xlsx
+++ b/pre_dcb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E147B26-5048-455D-B54F-79C495BCE6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F278373-ED28-4DE9-9688-EC330E2B83AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -978,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:L8"/>
+      <selection activeCell="A9" sqref="A9:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1362,6 +1362,53 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>22026</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>18</v>
+      </c>
+      <c r="J9">
+        <v>11</v>
+      </c>
+      <c r="K9">
+        <v>26</v>
+      </c>
+      <c r="L9">
+        <v>29</v>
+      </c>
+      <c r="M9">
+        <v>26</v>
+      </c>
+      <c r="N9">
+        <v>27</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pre_dcb.xlsx
+++ b/pre_dcb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F278373-ED28-4DE9-9688-EC330E2B83AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD56DD38-EDB1-49C0-AAB5-15163F456DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -978,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:O9"/>
+      <selection activeCell="A10" sqref="A10:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1409,6 +1409,53 @@
         <v>6</v>
       </c>
     </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>22027</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>21</v>
+      </c>
+      <c r="J10">
+        <v>17</v>
+      </c>
+      <c r="K10">
+        <v>25</v>
+      </c>
+      <c r="L10">
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>28</v>
+      </c>
+      <c r="N10">
+        <v>33</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pre_dcb.xlsx
+++ b/pre_dcb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD56DD38-EDB1-49C0-AAB5-15163F456DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB8F823-6412-433C-9962-1C0A10A2EFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -981,7 +981,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:O10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1431,7 +1431,7 @@
       <c r="G10">
         <v>12</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>14</v>
       </c>
       <c r="I10">
